--- a/pred_ohlcv/54_21/2019-10-31 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6899.706099999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8174.1158</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7981.913299999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7980.913299999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8780.9133</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8780.9133</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-12729.1891</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9395.8326</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-9394.8326</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9956.465399999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9955.465399999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-10364.5994</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9422.493199999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-9364.507899999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-15289.2764</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-23284.13519999999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-33129.45229999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-33411.45229999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-34219.89839999999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-34217.89839999999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-34243.89829999999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-34242.89829999999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6899.706099999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8174.1158</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7981.913299999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8780.9133</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8780.9133</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-10219.6672</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-12729.1891</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9395.8326</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-9394.8326</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9956.465399999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9955.465399999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-10364.5994</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20834.13499999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20833.13499999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20922.66409999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-20921.66409999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21043.41069999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-23285.13519999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-23284.13519999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-23624.13519999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-33129.45229999999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-33411.45229999999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-34219.89839999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-34217.89839999999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-34329.89829999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-34243.89829999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-34242.89829999999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-34122.89829999999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-29954.20919999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
